--- a/data/air_info/东京-上海.xlsx
+++ b/data/air_info/东京-上海.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819BC25E-3BC1-4526-8083-BFC9A5A2FB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF55C7C-2A44-4751-A4ED-A4CCBA2C02AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,23 +31,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
-  <si>
-    <t>行程时间：3 小时 20 分钟</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t>乐桃航空经济舱Airbus A320neoMM 899</t>
   </si>
   <si>
-    <t>行程时间：3 小时 15 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Boeing 777MU 576</t>
   </si>
   <si>
-    <t>行程时间：3 小时 10 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A321CA 158</t>
   </si>
   <si>
@@ -60,9 +51,6 @@
     <t>全日空经济舱Boeing 787-10NH 969</t>
   </si>
   <si>
-    <t>行程时间：3 小时 45 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A321MU 272</t>
   </si>
   <si>
@@ -72,33 +60,18 @@
     <t>日航经济舱Boeing 787JL 85</t>
   </si>
   <si>
-    <t>行程时间：3 小时 40 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：3 小时 5 分钟</t>
-  </si>
-  <si>
     <t>吉祥航空经济舱Boeing 787HO 1380</t>
   </si>
   <si>
     <t>上航经济舱Boeing 787FM 816</t>
   </si>
   <si>
-    <t>国航经济舱Airbus A330CA 924</t>
-  </si>
-  <si>
-    <t>行程时间：3 小时 25 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A330MU 524</t>
   </si>
   <si>
     <t>东航经济舱Airbus A330MU 538</t>
   </si>
   <si>
-    <t>行程时间：3 小时 30 分钟</t>
-  </si>
-  <si>
     <t>南航经济舱Airbus A321CZ 8310</t>
   </si>
   <si>
@@ -108,15 +81,9 @@
     <t>东航经济舱Airbus A350MU 522</t>
   </si>
   <si>
-    <t>行程时间：3 小时</t>
-  </si>
-  <si>
     <t>上航经济舱Boeing 787FM 896</t>
   </si>
   <si>
-    <t>日航经济舱Boeing 777JL 89</t>
-  </si>
-  <si>
     <t>全日空经济舱Boeing 767NH 971</t>
   </si>
   <si>
@@ -165,8 +132,34 @@
     <t>航空信息</t>
   </si>
   <si>
+    <t>3 小时 20 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 15 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 10 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 45 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 5 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 25 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 40 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 30 分钟</t>
+  </si>
+  <si>
+    <t>3 小时</t>
+  </si>
+  <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -519,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -533,30 +526,29 @@
     <col min="4" max="4" width="22.36328125" customWidth="1"/>
     <col min="5" max="5" width="32.36328125" customWidth="1"/>
     <col min="6" max="6" width="41.36328125" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -564,23 +556,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>0.20833333333333334</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f ca="1">RANDBETWEEN(800,1600)</f>
-        <v>997</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -588,23 +579,22 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>0.4548611111111111</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G26" ca="1" si="0">RANDBETWEEN(800,1600)</f>
-        <v>1501</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -612,23 +602,22 @@
         <v>0.37152777777777779</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D4" s="2">
         <v>0.46180555555555558</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1109</v>
+        <v>932</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -636,23 +625,22 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>0.47569444444444442</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1274</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -660,23 +648,22 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>0.4861111111111111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>873</v>
+        <v>841</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -684,23 +671,22 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>0.51041666666666663</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1595</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -708,23 +694,22 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2">
         <v>0.56944444444444442</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>837</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -732,23 +717,22 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>0.55902777777777779</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>1075</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -756,23 +740,22 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>0.58333333333333337</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1207</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -780,23 +763,22 @@
         <v>0.55902777777777779</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2">
         <v>0.64583333333333337</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>892</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -804,263 +786,252 @@
         <v>0.5625</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2">
         <v>0.64930555555555558</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1219</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>0.56597222222222221</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2">
-        <v>0.65972222222222221</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1227</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>0.57638888888888884</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2">
-        <v>0.67708333333333337</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>854</v>
+        <v>977</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>0.60416666666666663</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1454</v>
+        <v>939</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>0.61805555555555558</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D16" s="2">
-        <v>0.72222222222222221</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1591</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>0.66319444444444442</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
-        <v>0.75347222222222221</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1234</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>0.70486111111111116</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2">
-        <v>0.80208333333333337</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>1526</v>
+        <v>840</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>0.71527777777777779</v>
+        <v>0.77430555555555558</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2">
-        <v>0.79861111111111116</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="0"/>
-        <v>1303</v>
+        <v>967</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>0.72569444444444442</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2">
-        <v>0.82291666666666663</v>
+        <v>0.90625</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1185</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>0.77430555555555558</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D21" s="2">
-        <v>0.86111111111111116</v>
+        <v>0.92708333333333337</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="0"/>
-        <v>1296</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>0.80555555555555558</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
-        <v>0.90625</v>
+        <v>0.92708333333333337</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="0"/>
-        <v>1254</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1068,95 +1039,45 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D23" s="2">
-        <v>0.92708333333333337</v>
+        <v>0.92361111111111116</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="0"/>
-        <v>1130</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2">
-        <v>0.92708333333333337</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="0"/>
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.92361111111111116</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="0"/>
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.95138888888888884</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="0"/>
-        <v>1514</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
